--- a/data/raw/HW04/Tabla_Tarea_FF.xlsx
+++ b/data/raw/HW04/Tabla_Tarea_FF.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julietasarralde/Documents/UP/Econometria 2024/Tareas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE326E8-11F3-ED43-893D-195F52F80258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14520" activeTab="3" xr2:uid="{0AA41CA6-A449-3749-BEF7-044558ADE5D5}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tabla 1" sheetId="1" r:id="rId1"/>
-    <sheet name="tabla 2" sheetId="3" r:id="rId2"/>
-    <sheet name="tabla 3" sheetId="2" r:id="rId3"/>
-    <sheet name="tabla 4" sheetId="4" r:id="rId4"/>
+    <sheet name="tabla 1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="tabla 2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="tabla 3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="tabla 4" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -39,66 +25,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
-    <t>t</t>
+    <t xml:space="preserve">t</t>
   </si>
   <si>
-    <t>ahorro</t>
+    <t xml:space="preserve">ahorro</t>
   </si>
   <si>
-    <t>inversión</t>
+    <t xml:space="preserve">inversión</t>
   </si>
   <si>
-    <t>inversión EUR</t>
+    <t xml:space="preserve">inversión EUR</t>
   </si>
   <si>
-    <t>inversión MXN</t>
+    <t xml:space="preserve">inversión MXN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* \-??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,12 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -124,241 +120,230 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF002060"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -366,33 +351,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -405,13 +381,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -421,15 +391,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -437,7 +405,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -445,385 +412,391 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39A8EC7-0012-9546-9059-0D6634DF7BAB}">
-  <dimension ref="A2:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B2" s="4" t="n">
         <v>13599</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C2" s="4" t="n">
         <v>87957</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B3" s="4" t="n">
         <v>4699</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C3" s="4" t="n">
         <v>23578</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B4" s="4" t="n">
         <v>5473</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C4" s="4" t="n">
         <v>16345</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B5" s="4" t="n">
         <v>6119</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C5" s="4" t="n">
         <v>6550</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B6" s="4" t="n">
         <v>8811</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C6" s="4" t="n">
         <v>10230</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B7" s="4" t="n">
         <v>1142</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C7" s="4" t="n">
         <v>9127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B8" s="4" t="n">
         <v>143</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C8" s="4" t="n">
         <v>1675</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B9" s="4" t="n">
         <v>138</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C9" s="4" t="n">
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B10" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C10" s="4" t="n">
         <v>3351</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B11" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C11" s="4" t="n">
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B12" s="4" t="n">
         <v>307</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C12" s="4" t="n">
         <v>6376</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B13" s="4" t="n">
         <v>1545</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C13" s="4" t="n">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B14" s="4" t="n">
         <v>943</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C14" s="4" t="n">
         <v>1899</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B15" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C15" s="4" t="n">
         <v>10101</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B16" s="4" t="n">
         <v>285</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C16" s="4" t="n">
         <v>3831</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B17" s="4" t="n">
         <v>1052</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C17" s="4" t="n">
         <v>99528</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B18" s="4" t="n">
         <v>862</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C18" s="4" t="n">
         <v>15855</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B19" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C19" s="4" t="n">
         <v>8827</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B20" s="4" t="n">
         <v>1174</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C20" s="4" t="n">
         <v>54517</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B21" s="4" t="n">
         <v>2531</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C21" s="4" t="n">
         <v>49593</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B22" s="4" t="n">
         <v>408</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C22" s="4" t="n">
         <v>39664</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B23" s="4" t="n">
         <v>295</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C23" s="4" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B24" s="4" t="n">
         <v>488</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C24" s="4" t="n">
         <v>22549</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B25" s="4" t="n">
         <v>19200</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C25" s="4" t="n">
         <v>416422</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B26" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C26" s="4" t="n">
         <v>14212</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B27" s="4" t="n">
         <v>5320</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C27" s="4" t="n">
         <v>54174</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B28" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C28" s="4" t="n">
         <v>20218</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B29" s="4" t="n">
         <v>159</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C29" s="4" t="n">
         <v>11041</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B30" s="4" t="n">
         <v>244</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C30" s="4" t="n">
         <v>22542</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009E7EE8-AEBD-2D40-8A3B-BA73047AFB08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -834,352 +807,361 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>13599</v>
       </c>
-      <c r="C2" s="6">
-        <f>87957/1000</f>
-        <v>87.956999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="C2" s="6" t="n">
+        <f aca="false">87957/1000</f>
+        <v>87.957</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="6" t="n">
         <v>4699</v>
       </c>
-      <c r="C3" s="6">
-        <v>23.577999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="C3" s="6" t="n">
+        <v>23.578</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="n">
         <v>5473</v>
       </c>
-      <c r="C4" s="6">
-        <v>16.344999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="C4" s="6" t="n">
+        <v>16.345</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="n">
         <v>6119</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6" t="n">
         <v>6.55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="6" t="n">
         <v>8811</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6" t="n">
         <v>10.23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="6" t="n">
         <v>1142</v>
       </c>
-      <c r="C7" s="6">
-        <v>9.1270000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="C7" s="6" t="n">
+        <v>9.127</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="6" t="n">
         <v>1.675</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="6" t="n">
         <v>138</v>
       </c>
-      <c r="C9" s="6">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="C9" s="6" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="6" t="n">
         <v>3.351</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="C11" s="6">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="C11" s="6" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="6" t="n">
         <v>307</v>
       </c>
-      <c r="C12" s="6">
-        <v>6.3760000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="C12" s="6" t="n">
+        <v>6.376</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="6" t="n">
         <v>1545</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="6" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6" t="n">
         <v>943</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="6" t="n">
         <v>1.899</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="6" t="n">
         <v>369</v>
       </c>
-      <c r="C15" s="6">
-        <v>10.101000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="C15" s="6" t="n">
+        <v>10.101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="6" t="n">
         <v>285</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="6" t="n">
         <v>3.831</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6" t="n">
         <v>1052</v>
       </c>
-      <c r="C17" s="6">
-        <f>99528/1000</f>
-        <v>99.528000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="C17" s="6" t="n">
+        <f aca="false">99528/1000</f>
+        <v>99.528</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="6" t="n">
         <v>862</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="6" t="n">
         <v>15.855</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="6" t="n">
         <v>8.827</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="6" t="n">
         <v>1174</v>
       </c>
-      <c r="C20" s="6">
-        <f>54517/1000</f>
-        <v>54.517000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="C20" s="6" t="n">
+        <f aca="false">54517/1000</f>
+        <v>54.517</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="6" t="n">
         <v>2531</v>
       </c>
-      <c r="C21" s="6">
-        <f>49593/1000</f>
-        <v>49.593000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="C21" s="6" t="n">
+        <f aca="false">49593/1000</f>
+        <v>49.593</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="6" t="n">
         <v>408</v>
       </c>
-      <c r="C22" s="6">
-        <f>39664/1000</f>
-        <v>39.664000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="C22" s="6" t="n">
+        <f aca="false">39664/1000</f>
+        <v>39.664</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="6" t="n">
         <v>295</v>
       </c>
-      <c r="C23" s="6">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="C23" s="6" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="6" t="n">
         <v>488</v>
       </c>
-      <c r="C24" s="6">
-        <v>22.548999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="C24" s="6" t="n">
+        <v>22.549</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="6" t="n">
         <v>19200</v>
       </c>
-      <c r="C25" s="6">
-        <f>416422/1000</f>
-        <v>416.42200000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="C25" s="6" t="n">
+        <f aca="false">416422/1000</f>
+        <v>416.422</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="6" t="n">
         <v>14.212</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="6" t="n">
         <v>5320</v>
       </c>
-      <c r="C27" s="6">
-        <f>54174/1000</f>
-        <v>54.173999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="C27" s="6" t="n">
+        <f aca="false">54174/1000</f>
+        <v>54.174</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="6" t="n">
         <v>357</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="6" t="n">
         <v>20.218</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="6" t="n">
         <v>159</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="6" t="n">
         <v>11.041</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="6" t="n">
         <v>244</v>
       </c>
-      <c r="C30" s="6">
-        <v>22.542000000000002</v>
+      <c r="C30" s="6" t="n">
+        <v>22.542</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6035770-CB7F-0A4D-AB79-92BDDA51AE0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1190,349 +1172,358 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <f>13599</f>
+      <c r="B2" s="7" t="n">
+        <f aca="false">13599</f>
         <v>13599</v>
       </c>
-      <c r="C2" s="4">
-        <f>87957/100</f>
+      <c r="C2" s="4" t="n">
+        <f aca="false">87957/100</f>
         <v>879.57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="4" t="n">
         <v>4699</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>235.78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="n">
         <v>5473</v>
       </c>
-      <c r="C4" s="4">
-        <v>163.44999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="C4" s="4" t="n">
+        <v>163.45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="n">
         <v>6119</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>65.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="n">
         <v>8811</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>102.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="4" t="n">
         <v>1142</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>91.27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="4" t="n">
         <v>143</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>16.75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4" t="n">
         <v>138</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>33.51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>11.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="4" t="n">
         <v>307</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>63.76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="n">
         <v>1545</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="4" t="n">
         <v>943</v>
       </c>
-      <c r="C14" s="4">
-        <v>18.989999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="C14" s="4" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>101.01</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="4" t="n">
         <v>285</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>38.31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="4" t="n">
         <v>1052</v>
       </c>
-      <c r="C17" s="4">
-        <f>99528/100</f>
+      <c r="C17" s="4" t="n">
+        <f aca="false">99528/100</f>
         <v>995.28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4" t="n">
         <v>862</v>
       </c>
-      <c r="C18" s="4">
-        <v>158.55000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="C18" s="4" t="n">
+        <v>158.55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>88.27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="4" t="n">
         <v>1174</v>
       </c>
-      <c r="C20" s="4">
-        <f>54517/100</f>
-        <v>545.16999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="C20" s="4" t="n">
+        <f aca="false">54517/100</f>
+        <v>545.17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="4" t="n">
         <v>2531</v>
       </c>
-      <c r="C21" s="4">
-        <f>49593/100</f>
+      <c r="C21" s="4" t="n">
+        <f aca="false">49593/100</f>
         <v>495.93</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="4" t="n">
         <v>408</v>
       </c>
-      <c r="C22" s="4">
-        <f>39664/100</f>
+      <c r="C22" s="4" t="n">
+        <f aca="false">39664/100</f>
         <v>396.64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="4" t="n">
         <v>295</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="n">
         <v>3.27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="4" t="n">
         <v>488</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="n">
         <v>225.49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="4" t="n">
         <v>19200</v>
       </c>
-      <c r="C25" s="4">
-        <f>416422/100</f>
+      <c r="C25" s="4" t="n">
+        <f aca="false">416422/100</f>
         <v>4164.22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="n">
         <v>142.12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="4" t="n">
         <v>5320</v>
       </c>
-      <c r="C27" s="4">
-        <f>54174/100</f>
+      <c r="C27" s="4" t="n">
+        <f aca="false">54174/100</f>
         <v>541.74</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="4" t="n">
         <v>202.18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="4" t="n">
         <v>159</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="4" t="n">
         <v>110.41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="4" t="n">
         <v>244</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="4" t="n">
         <v>225.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07CEFD8-E7EF-A848-860D-8D77E00F5C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1543,326 +1534,332 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4" t="n">
         <v>13599</v>
       </c>
-      <c r="C2" s="4">
-        <v>8795.7000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="C2" s="4" t="n">
+        <v>8795.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="4" t="n">
         <v>4699</v>
       </c>
-      <c r="C3" s="4">
-        <v>2357.8000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="C3" s="4" t="n">
+        <v>2357.8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="n">
         <v>5473</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>1634.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="n">
         <v>6119</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4" t="n">
         <v>8811</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>1023</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="4" t="n">
         <v>1142</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>912.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="4" t="n">
         <v>143</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>167.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4" t="n">
         <v>138</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>335.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="4" t="n">
         <v>307</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>637.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="n">
         <v>1545</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="4" t="n">
         <v>943</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>189.9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>1010.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="4" t="n">
         <v>285</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>383.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="4" t="n">
         <v>1052</v>
       </c>
-      <c r="C17" s="4">
-        <v>9952.7999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="C17" s="4" t="n">
+        <v>9952.8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4" t="n">
         <v>862</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>1585.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>882.7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="4" t="n">
         <v>1174</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="n">
         <v>5451.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="4" t="n">
         <v>2531</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="n">
         <v>4959.3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="4" t="n">
         <v>408</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="n">
         <v>3966.4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="4" t="n">
         <v>295</v>
       </c>
-      <c r="C23" s="4">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="C23" s="4" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="4" t="n">
         <v>488</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="n">
         <v>2254.9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="4" t="n">
         <v>19200</v>
       </c>
-      <c r="C25" s="4">
-        <v>41642.199999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="C25" s="4" t="n">
+        <v>41642.2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="n">
         <v>1421.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="4" t="n">
         <v>5320</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="4" t="n">
         <v>5417.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="4" t="n">
         <v>357</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="4" t="n">
         <v>2021.8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="4" t="n">
         <v>159</v>
       </c>
-      <c r="C29" s="4">
-        <v>1104.0999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="C29" s="4" t="n">
+        <v>1104.1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="4" t="n">
         <v>244</v>
       </c>
-      <c r="C30" s="4">
-        <v>2254.1999999999998</v>
+      <c r="C30" s="4" t="n">
+        <v>2254.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>